--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.34085166666667</v>
+        <v>15.04529833333333</v>
       </c>
       <c r="H2">
-        <v>43.022555</v>
+        <v>45.135895</v>
       </c>
       <c r="I2">
-        <v>0.5393411052175457</v>
+        <v>0.5098953433306311</v>
       </c>
       <c r="J2">
-        <v>0.5393411052175457</v>
+        <v>0.5098953433306311</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N2">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q2">
-        <v>125.8775664481694</v>
+        <v>162.8153188111761</v>
       </c>
       <c r="R2">
-        <v>1132.898098033525</v>
+        <v>1465.337869300585</v>
       </c>
       <c r="S2">
-        <v>0.04020689819072236</v>
+        <v>0.04657151429809007</v>
       </c>
       <c r="T2">
-        <v>0.04020689819072236</v>
+        <v>0.04657151429809007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.34085166666667</v>
+        <v>15.04529833333333</v>
       </c>
       <c r="H3">
-        <v>43.022555</v>
+        <v>45.135895</v>
       </c>
       <c r="I3">
-        <v>0.5393411052175457</v>
+        <v>0.5098953433306311</v>
       </c>
       <c r="J3">
-        <v>0.5393411052175457</v>
+        <v>0.5098953433306311</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
         <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q3">
-        <v>518.2985568116283</v>
+        <v>543.7582505014218</v>
       </c>
       <c r="R3">
-        <v>4664.687011304655</v>
+        <v>4893.824254512796</v>
       </c>
       <c r="S3">
-        <v>0.165551161292144</v>
+        <v>0.155536010510782</v>
       </c>
       <c r="T3">
-        <v>0.165551161292144</v>
+        <v>0.155536010510782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.34085166666667</v>
+        <v>15.04529833333333</v>
       </c>
       <c r="H4">
-        <v>43.022555</v>
+        <v>45.135895</v>
       </c>
       <c r="I4">
-        <v>0.5393411052175457</v>
+        <v>0.5098953433306311</v>
       </c>
       <c r="J4">
-        <v>0.5393411052175457</v>
+        <v>0.5098953433306311</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N4">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q4">
-        <v>261.6335321893211</v>
+        <v>397.2120446806089</v>
       </c>
       <c r="R4">
-        <v>2354.70178970389</v>
+        <v>3574.90840212548</v>
       </c>
       <c r="S4">
-        <v>0.08356908294971327</v>
+        <v>0.1136180953566806</v>
       </c>
       <c r="T4">
-        <v>0.08356908294971327</v>
+        <v>0.1136180953566806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.34085166666667</v>
+        <v>15.04529833333333</v>
       </c>
       <c r="H5">
-        <v>43.022555</v>
+        <v>45.135895</v>
       </c>
       <c r="I5">
-        <v>0.5393411052175457</v>
+        <v>0.5098953433306311</v>
       </c>
       <c r="J5">
-        <v>0.5393411052175457</v>
+        <v>0.5098953433306311</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N5">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q5">
-        <v>782.7300943273616</v>
+        <v>678.8227923672339</v>
       </c>
       <c r="R5">
-        <v>7044.570848946255</v>
+        <v>6109.405131305105</v>
       </c>
       <c r="S5">
-        <v>0.2500139627849662</v>
+        <v>0.1941697231650784</v>
       </c>
       <c r="T5">
-        <v>0.2500139627849662</v>
+        <v>0.1941697231650785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>20.475054</v>
       </c>
       <c r="I6">
-        <v>0.2566802053887532</v>
+        <v>0.2313044792629727</v>
       </c>
       <c r="J6">
-        <v>0.2566802053887532</v>
+        <v>0.2313044792629727</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N6">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q6">
-        <v>59.90694812093</v>
+        <v>73.858122115138</v>
       </c>
       <c r="R6">
-        <v>539.16253308837</v>
+        <v>664.723099036242</v>
       </c>
       <c r="S6">
-        <v>0.01913504234296505</v>
+        <v>0.02112629582542157</v>
       </c>
       <c r="T6">
-        <v>0.01913504234296505</v>
+        <v>0.02112629582542157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>20.475054</v>
       </c>
       <c r="I7">
-        <v>0.2566802053887532</v>
+        <v>0.2313044792629727</v>
       </c>
       <c r="J7">
-        <v>0.2566802053887532</v>
+        <v>0.2313044792629727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
         <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q7">
         <v>246.665753320326</v>
@@ -883,10 +883,10 @@
         <v>2219.991779882934</v>
       </c>
       <c r="S7">
-        <v>0.07878818371478305</v>
+        <v>0.07055600014473687</v>
       </c>
       <c r="T7">
-        <v>0.07878818371478305</v>
+        <v>0.07055600014473687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>20.475054</v>
       </c>
       <c r="I8">
-        <v>0.2566802053887532</v>
+        <v>0.2313044792629727</v>
       </c>
       <c r="J8">
-        <v>0.2566802053887532</v>
+        <v>0.2313044792629727</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N8">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q8">
-        <v>124.515168840788</v>
+        <v>180.187809819344</v>
       </c>
       <c r="R8">
-        <v>1120.636519567092</v>
+        <v>1621.690288374096</v>
       </c>
       <c r="S8">
-        <v>0.03977173104028477</v>
+        <v>0.05154072247387993</v>
       </c>
       <c r="T8">
-        <v>0.03977173104028477</v>
+        <v>0.05154072247387994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>20.475054</v>
       </c>
       <c r="I9">
-        <v>0.2566802053887532</v>
+        <v>0.2313044792629727</v>
       </c>
       <c r="J9">
-        <v>0.2566802053887532</v>
+        <v>0.2313044792629727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N9">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q9">
-        <v>372.512533223046</v>
+        <v>307.935254859794</v>
       </c>
       <c r="R9">
-        <v>3352.612799007414</v>
+        <v>2771.417293738146</v>
       </c>
       <c r="S9">
-        <v>0.1189852482907204</v>
+        <v>0.08808146081893428</v>
       </c>
       <c r="T9">
-        <v>0.1189852482907204</v>
+        <v>0.0880814608189343</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.499973666666667</v>
+        <v>6.326195000000001</v>
       </c>
       <c r="H10">
-        <v>13.499921</v>
+        <v>18.978585</v>
       </c>
       <c r="I10">
-        <v>0.1692382591524273</v>
+        <v>0.2143990301843924</v>
       </c>
       <c r="J10">
-        <v>0.1692382591524273</v>
+        <v>0.2143990301843924</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N10">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q10">
-        <v>39.49875135780611</v>
+        <v>68.46002205916169</v>
       </c>
       <c r="R10">
-        <v>355.488762220255</v>
+        <v>616.1401985324551</v>
       </c>
       <c r="S10">
-        <v>0.0126164043309328</v>
+        <v>0.01958222923650938</v>
       </c>
       <c r="T10">
-        <v>0.01261640433093281</v>
+        <v>0.01958222923650938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.499973666666667</v>
+        <v>6.326195000000001</v>
       </c>
       <c r="H11">
-        <v>13.499921</v>
+        <v>18.978585</v>
       </c>
       <c r="I11">
-        <v>0.1692382591524273</v>
+        <v>0.2143990301843924</v>
       </c>
       <c r="J11">
-        <v>0.1692382591524273</v>
+        <v>0.2143990301843924</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N11">
         <v>108.424221</v>
       </c>
       <c r="O11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q11">
-        <v>162.6353797762823</v>
+        <v>228.6375882563651</v>
       </c>
       <c r="R11">
-        <v>1463.718417986541</v>
+        <v>2057.738294307286</v>
       </c>
       <c r="S11">
-        <v>0.05194781200005907</v>
+        <v>0.06539924368487142</v>
       </c>
       <c r="T11">
-        <v>0.05194781200005909</v>
+        <v>0.06539924368487141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.499973666666667</v>
+        <v>6.326195000000001</v>
       </c>
       <c r="H12">
-        <v>13.499921</v>
+        <v>18.978585</v>
       </c>
       <c r="I12">
-        <v>0.1692382591524273</v>
+        <v>0.2143990301843924</v>
       </c>
       <c r="J12">
-        <v>0.1692382591524273</v>
+        <v>0.2143990301843924</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N12">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q12">
-        <v>82.09721657643978</v>
+        <v>167.0183465508933</v>
       </c>
       <c r="R12">
-        <v>738.874949187958</v>
+        <v>1503.16511895804</v>
       </c>
       <c r="S12">
-        <v>0.02622289675412295</v>
+        <v>0.04777374371915897</v>
       </c>
       <c r="T12">
-        <v>0.02622289675412295</v>
+        <v>0.04777374371915897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.499973666666667</v>
+        <v>6.326195000000001</v>
       </c>
       <c r="H13">
-        <v>13.499921</v>
+        <v>18.978585</v>
       </c>
       <c r="I13">
-        <v>0.1692382591524273</v>
+        <v>0.2143990301843924</v>
       </c>
       <c r="J13">
-        <v>0.1692382591524273</v>
+        <v>0.2143990301843924</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N13">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O13">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P13">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q13">
-        <v>245.6105742148956</v>
+        <v>285.4290596182684</v>
       </c>
       <c r="R13">
-        <v>2210.495167934061</v>
+        <v>2568.861536564415</v>
       </c>
       <c r="S13">
-        <v>0.07845114606731245</v>
+        <v>0.08164381354385264</v>
       </c>
       <c r="T13">
-        <v>0.07845114606731246</v>
+        <v>0.08164381354385264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9237333333333333</v>
+        <v>1.310128666666667</v>
       </c>
       <c r="H14">
-        <v>2.7712</v>
+        <v>3.930386</v>
       </c>
       <c r="I14">
-        <v>0.03474043024127374</v>
+        <v>0.04440114722200381</v>
       </c>
       <c r="J14">
-        <v>0.03474043024127375</v>
+        <v>0.04440114722200381</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N14">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O14">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P14">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q14">
-        <v>8.108117059555555</v>
+        <v>14.17778576543089</v>
       </c>
       <c r="R14">
-        <v>72.97305353599999</v>
+        <v>127.600071888878</v>
       </c>
       <c r="S14">
-        <v>0.002589835872512216</v>
+        <v>0.004055398210138805</v>
       </c>
       <c r="T14">
-        <v>0.002589835872512217</v>
+        <v>0.004055398210138804</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9237333333333333</v>
+        <v>1.310128666666667</v>
       </c>
       <c r="H15">
-        <v>2.7712</v>
+        <v>3.930386</v>
       </c>
       <c r="I15">
-        <v>0.03474043024127374</v>
+        <v>0.04440114722200381</v>
       </c>
       <c r="J15">
-        <v>0.03474043024127375</v>
+        <v>0.04440114722200381</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N15">
         <v>108.424221</v>
       </c>
       <c r="O15">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P15">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q15">
-        <v>33.38502235946667</v>
+        <v>47.34989336436735</v>
       </c>
       <c r="R15">
-        <v>300.4652012352</v>
+        <v>426.1490402793061</v>
       </c>
       <c r="S15">
-        <v>0.01066360141030186</v>
+        <v>0.01354391129737053</v>
       </c>
       <c r="T15">
-        <v>0.01066360141030186</v>
+        <v>0.01354391129737053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9237333333333333</v>
+        <v>1.310128666666667</v>
       </c>
       <c r="H16">
-        <v>2.7712</v>
+        <v>3.930386</v>
       </c>
       <c r="I16">
-        <v>0.03474043024127374</v>
+        <v>0.04440114722200381</v>
       </c>
       <c r="J16">
-        <v>0.03474043024127375</v>
+        <v>0.04440114722200381</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N16">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O16">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P16">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q16">
-        <v>16.85252873528889</v>
+        <v>34.58880475160711</v>
       </c>
       <c r="R16">
-        <v>151.6727586176</v>
+        <v>311.2992427644639</v>
       </c>
       <c r="S16">
-        <v>0.005382912350748239</v>
+        <v>0.009893743578953347</v>
       </c>
       <c r="T16">
-        <v>0.00538291235074824</v>
+        <v>0.009893743578953347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9237333333333333</v>
+        <v>1.310128666666667</v>
       </c>
       <c r="H17">
-        <v>2.7712</v>
+        <v>3.930386</v>
       </c>
       <c r="I17">
-        <v>0.03474043024127374</v>
+        <v>0.04440114722200381</v>
       </c>
       <c r="J17">
-        <v>0.03474043024127375</v>
+        <v>0.04440114722200381</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N17">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O17">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P17">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q17">
-        <v>50.41777824213333</v>
+        <v>59.1111708231571</v>
       </c>
       <c r="R17">
-        <v>453.7600041792</v>
+        <v>532.0005374084139</v>
       </c>
       <c r="S17">
-        <v>0.01610408060771143</v>
+        <v>0.01690809413554113</v>
       </c>
       <c r="T17">
-        <v>0.01610408060771143</v>
+        <v>0.01690809413554113</v>
       </c>
     </row>
   </sheetData>
